--- a/test_resources/TestSource1.xlsx
+++ b/test_resources/TestSource1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>sourceCol1</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>d4</t>
+  </si>
+  <si>
+    <t>sourceDuplicates</t>
+  </si>
+  <si>
+    <t>sourceWhitespace</t>
+  </si>
+  <si>
+    <t>whitespace   cell</t>
+  </si>
+  <si>
+    <t>duplicate string</t>
+  </si>
+  <si>
+    <t>another string</t>
+  </si>
+  <si>
+    <t>not whitespace</t>
+  </si>
+  <si>
+    <t>some string</t>
+  </si>
+  <si>
+    <t>duplicate ints</t>
   </si>
 </sst>
 </file>
@@ -193,6 +217,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -228,6 +269,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,19 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F4"/>
+  <dimension ref="B1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +465,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -419,8 +488,17 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -433,8 +511,17 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -446,6 +533,15 @@
       </c>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
